--- a/完成データ/時系列グループ別合計データ.xlsx
+++ b/完成データ/時系列グループ別合計データ.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,13 +733,168 @@
         <v>161015.9</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07188224572437753</v>
+        <v>0.07188224572437772</v>
       </c>
       <c r="H10" t="n">
         <v>8660.699999999999</v>
       </c>
       <c r="I10" t="n">
         <v>-0.09446686602120426</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10974.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2207990457459724</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15507.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2064589420680692</v>
+      </c>
+      <c r="F11" t="n">
+        <v>109541.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.3196833356208921</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4700.299999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.4572840532520466</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>19049.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7358057314684039</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28799.3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8571446995930949</v>
+      </c>
+      <c r="F12" t="n">
+        <v>167733.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5312282617229221</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12142.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.583281918175436</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11468.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.3979768604065177</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15837.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.4500664946717455</v>
+      </c>
+      <c r="F13" t="n">
+        <v>115022.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.3142568419546483</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7992.799999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.3417337879461713</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9505.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.1711500396745812</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12331.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.2213957834786618</v>
+      </c>
+      <c r="F14" t="n">
+        <v>101931.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.1138120413381429</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2607</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.6738314483034731</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>32544.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.423765188575036</v>
+      </c>
+      <c r="D15" t="n">
+        <v>39411.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.196078272363823</v>
+      </c>
+      <c r="F15" t="n">
+        <v>321223.4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.151374652706924</v>
+      </c>
+      <c r="H15" t="n">
+        <v>16661.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.390947449175298</v>
       </c>
     </row>
   </sheetData>

--- a/完成データ/時系列グループ別合計データ.xlsx
+++ b/完成データ/時系列グループ別合計データ.xlsx
@@ -1,43 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+  <si>
+    <t>アメリカ系合計</t>
+  </si>
+  <si>
+    <t>ネット証券他合計</t>
+  </si>
+  <si>
+    <t>ヨーロッパ系合計</t>
+  </si>
+  <si>
+    <t>国内大手合計</t>
+  </si>
+  <si>
+    <t>売り＋買い</t>
+  </si>
+  <si>
+    <t>前日比</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,31 +108,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -78,83 +127,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -442,458 +424,404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>アメリカ系合計</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ネット証券他合計</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ヨーロッパ系合計</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>国内大手合計</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>売り＋買い</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>前日比</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>売り＋買い</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>前日比</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>売り＋買い</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>前日比</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>売り＋買い</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>前日比</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-07</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>15388.1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>20118.8</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>139236.9</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>10077.8</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-11</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>31346.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.037061105659568</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>11860.8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-0.4104618565719625</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>171027.4</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.2283195043842545</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>18938.5</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.8792295937605431</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-12</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>26351.6</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>-0.1593447434322812</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>28926.3</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1.438815256980979</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>212652.8</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.2433843933779032</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>14777.8</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>-0.2196953296195581</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-13</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>37317</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.4161189453391825</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>24858.6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-0.1406228933531078</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>221084.4</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.03964960724711834</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>32570.7</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>1.20402901649772</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-14</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>27425.4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>-0.2650695393520379</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>17997.1</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-0.276021175770156</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>148371</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-0.3288943046185077</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>16426.7</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>-0.4956602099432926</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>13113.8</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>-0.5218374207851116</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>25415.4</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.4121941868412135</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>150217.9</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.01244785032115436</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>9564.200000000001</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>-0.4177649801846993</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-21</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>14084.3</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.07400600893715018</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>19541.9</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-0.2311000417069965</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>161015.9</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.07188224572437772</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>8660.699999999999</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>-0.09446686602120426</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-24</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>10974.5</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>-0.2207990457459724</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>15507.3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-0.2064589420680692</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>109541.8</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-0.3196833356208921</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>4700.299999999999</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>-0.4572840532520466</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-25</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>19049.6</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.7358057314684039</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>28799.3</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.8571446995930949</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>167733.5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.5312282617229221</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>12142.2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>1.583281918175436</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-26</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>11468.3</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>-0.3979768604065177</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>15837.7</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-0.4500664946717455</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>115022.1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-0.3142568419546483</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>7992.799999999999</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>-0.3417337879461713</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-27</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>9505.5</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>-0.1711500396745812</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>12331.3</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-0.2213957834786618</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>101931.2</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-0.1138120413381429</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>2607</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>-0.6738314483034731</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-28</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
         <v>32544.6</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2.423765188575036</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>39411.8</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2.196078272363823</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>321223.4</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>2.151374652706924</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>16661.2</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>5.390947449175298</v>
       </c>
     </row>
@@ -904,6 +832,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>